--- a/module/mDrims-Reader/documents/origin/mdrims/나노디그리/나노디그리.xlsx
+++ b/module/mDrims-Reader/documents/origin/mdrims/나노디그리/나노디그리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/97mjh1012_dongguk_edu/Documents/CSE_Study/개인 프로젝트/mdrims-reader/mdrims-reader/documents/mdrims/nano_degree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - dongguk.edu\CSE_Study\개인 프로젝트\TimeTable-Generator\project\module\mDrims-Reader\mdrims-reader\documents\origin\mdrims\나노디그리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_5A36D45C4A06024FD9156304C4712D6FFBA9FEB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FAEF3D-51E4-46DD-BB82-5AAF4CBF4557}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F667B6-1A20-42EB-89FF-57C7557DCF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>교과과정</t>
   </si>
@@ -49,55 +49,85 @@
     <t>N-데이터과학개요</t>
   </si>
   <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NAD1002-01</t>
+  </si>
+  <si>
+    <t>N-기계학습기본알고리즘</t>
+  </si>
+  <si>
+    <t>김지희</t>
+  </si>
+  <si>
+    <t>NAD1003-01</t>
+  </si>
+  <si>
+    <t>N-데이터시각화개요</t>
+  </si>
+  <si>
+    <t>장혜령</t>
+  </si>
+  <si>
+    <t>NAD1005-01</t>
+  </si>
+  <si>
+    <t>N-탐색적데이터분석</t>
+  </si>
+  <si>
+    <t>박성식</t>
+  </si>
+  <si>
+    <t>NAD1006-01</t>
+  </si>
+  <si>
+    <t>N-기계학습</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>NAD1007-01</t>
+  </si>
+  <si>
+    <t>N-딥러닝알고리즘</t>
+  </si>
+  <si>
+    <t>NAD1008-01</t>
+  </si>
+  <si>
+    <t>N-추천시스템기본알고리즘</t>
+  </si>
+  <si>
+    <t>NAD1009-01</t>
+  </si>
+  <si>
+    <t>N-추천시스템고급알고리즘</t>
+  </si>
+  <si>
+    <t>NAD3001-01</t>
+  </si>
+  <si>
+    <t>N-데이터사이언스캡스톤프로젝트</t>
+  </si>
+  <si>
     <t>김광일</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>NAD1002-01</t>
-  </si>
-  <si>
-    <t>N-기계학습기본알고리즘</t>
-  </si>
-  <si>
-    <t>김지희</t>
-  </si>
-  <si>
-    <t>NAD1003-01</t>
-  </si>
-  <si>
-    <t>N-데이터시각화개요</t>
-  </si>
-  <si>
-    <t>NAD1005-01</t>
-  </si>
-  <si>
-    <t>N-탐색적데이터분석</t>
-  </si>
-  <si>
-    <t>NAD1006-01</t>
-  </si>
-  <si>
-    <t>N-기계학습</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>NAD1008-01</t>
-  </si>
-  <si>
-    <t>N-추천시스템기본알고리즘</t>
-  </si>
-  <si>
-    <t>NAD3001-01</t>
-  </si>
-  <si>
-    <t>N-데이터사이언스캡스톤프로젝트</t>
-  </si>
-  <si>
-    <t>월7.0-7.5/15:00-16:00</t>
+    <t>금5.0-5.5/13:00-14:00</t>
+  </si>
+  <si>
+    <t>NAD3004-01</t>
+  </si>
+  <si>
+    <t>N-추천시스템캡스톤프로젝트</t>
+  </si>
+  <si>
+    <t>금6.5-7.0/14:30-15:30</t>
   </si>
   <si>
     <t>*</t>
@@ -499,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -580,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,10 +627,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,19 +638,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -628,19 +658,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,19 +678,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,19 +698,79 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
